--- a/biology/Botanique/Chandelier_Tree/Chandelier_Tree.xlsx
+++ b/biology/Botanique/Chandelier_Tree/Chandelier_Tree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chandelier Tree (l'« arbre chandelier »), situé dans le Drive-Thru Tree Park (« parc de l'arbre qu'on traverse en conduisant »)[1], est un Sequoia sempervirens faisant 96 mètres de haut à Leggett (Californie). À sa base, le tronc est traversé par un trou faisant 1,8 mètre de large par 2,06 mètres de haut [2] permettant aux voitures de le traverser. Sa base mesure 6,4 mètres de diamètre.
-Le nom d'« arbre chandelier  » vient de la forme de ses branches rappelant la forme d'un chandelier. Les branches, qui font de 1,2 à 2,1 mètres de diamètre commencent 30 mètres au-dessus du sol. L'arbre aurait été creusé au début des années 1930 par Charlie Underwood[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chandelier Tree (l'« arbre chandelier »), situé dans le Drive-Thru Tree Park (« parc de l'arbre qu'on traverse en conduisant »), est un Sequoia sempervirens faisant 96 mètres de haut à Leggett (Californie). À sa base, le tronc est traversé par un trou faisant 1,8 mètre de large par 2,06 mètres de haut  permettant aux voitures de le traverser. Sa base mesure 6,4 mètres de diamètre.
+Le nom d'« arbre chandelier  » vient de la forme de ses branches rappelant la forme d'un chandelier. Les branches, qui font de 1,2 à 2,1 mètres de diamètre commencent 30 mètres au-dessus du sol. L'arbre aurait été creusé au début des années 1930 par Charlie Underwood,.
 </t>
         </is>
       </c>
